--- a/data-raw/habitat_vulnerability.xlsx
+++ b/data-raw/habitat_vulnerability.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimberly.bastille\Desktop\Rgghhh\ecodata\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sean.lucey\Desktop\SOE_data\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25170" windowHeight="12060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="11700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PrioritizationMatrix" sheetId="1" r:id="rId1"/>
@@ -452,9 +452,6 @@
   </cellStyleXfs>
   <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -580,6 +577,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -870,168 +870,168 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="6" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="E4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="8">
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="7">
         <v>1</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>2</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>3.5</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="10">
-        <v>4</v>
-      </c>
-      <c r="D6" s="11">
-        <v>4</v>
-      </c>
-      <c r="E6" s="12">
-        <v>8</v>
-      </c>
-      <c r="F6" s="13">
+      <c r="B6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="9">
+        <v>4</v>
+      </c>
+      <c r="D6" s="10">
+        <v>4</v>
+      </c>
+      <c r="E6" s="11">
+        <v>8</v>
+      </c>
+      <c r="F6" s="12">
         <v>14</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="13">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="10">
+      <c r="A7" s="45"/>
+      <c r="B7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9">
         <v>3</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>3</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>6</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>10.5</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="13">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="10">
+      <c r="A8" s="45"/>
+      <c r="B8" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="9">
         <v>2</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <v>2</v>
       </c>
-      <c r="E8" s="11">
-        <v>4</v>
-      </c>
-      <c r="F8" s="11">
+      <c r="E8" s="10">
+        <v>4</v>
+      </c>
+      <c r="F8" s="10">
         <v>7</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="16">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="16" t="s">
+      <c r="A9" s="45"/>
+      <c r="B9" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>1</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="17">
         <v>1</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="17">
         <v>2</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="17">
         <v>3.5</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="18">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1047,7 +1047,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1063,804 +1063,804 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="23" t="s">
+      <c r="B3" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="26" t="s">
+      <c r="D3" s="20"/>
+      <c r="E3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="25" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="23" t="s">
+      <c r="B4" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="28" t="s">
+      <c r="D4" s="20"/>
+      <c r="E4" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="27" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="23" t="s">
+      <c r="B5" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="28" t="s">
+      <c r="D5" s="20"/>
+      <c r="E5" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="27" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="23" t="s">
+      <c r="B6" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="26" t="s">
+      <c r="D6" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="25" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="29" t="s">
+      <c r="B7" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="31" t="s">
+      <c r="D7" s="29"/>
+      <c r="E7" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="29"/>
+      <c r="H7" s="30" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="28" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="27" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="23" t="s">
+      <c r="B9" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="28" t="s">
+      <c r="D9" s="20"/>
+      <c r="E9" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="27" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="23" t="s">
+      <c r="B10" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="26" t="s">
+      <c r="D10" s="20"/>
+      <c r="E10" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="25" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="23" t="s">
+      <c r="B11" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="24" t="s">
+      <c r="D11" s="20"/>
+      <c r="E11" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="28" t="s">
+      <c r="D12" s="20"/>
+      <c r="E12" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="27" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="23" t="s">
+      <c r="B13" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="26" t="s">
+      <c r="D13" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="25" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="23" t="s">
+      <c r="B14" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="24" t="s">
+      <c r="D14" s="20"/>
+      <c r="E14" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="23" t="s">
+      <c r="B15" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="28" t="s">
+      <c r="D15" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="27" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="23" t="s">
+      <c r="B16" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="28" t="s">
+      <c r="D16" s="20"/>
+      <c r="E16" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="27" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="23" t="s">
+      <c r="B17" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="24" t="s">
+      <c r="D17" s="20"/>
+      <c r="E17" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="20"/>
+      <c r="H17" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="23" t="s">
+      <c r="B18" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="24" t="s">
+      <c r="D18" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="23" t="s">
+      <c r="B19" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="25" t="s">
+      <c r="D19" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="20"/>
+      <c r="H19" s="24" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="23" t="s">
+      <c r="B20" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="24" t="s">
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="23" t="s">
+      <c r="B21" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="28" t="s">
+      <c r="D21" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="27" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="23" t="s">
+      <c r="B22" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="28" t="s">
+      <c r="D22" s="20"/>
+      <c r="E22" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="27" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="23" t="s">
+      <c r="B23" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="25" t="s">
+      <c r="D23" s="20"/>
+      <c r="E23" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="20"/>
+      <c r="H23" s="24" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="23" t="s">
+      <c r="B24" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="26" t="s">
+      <c r="D24" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="25" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="23" t="s">
+      <c r="B25" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="25" t="s">
+      <c r="D25" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="20"/>
+      <c r="H25" s="24" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="23" t="s">
+      <c r="B26" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="25" t="s">
+      <c r="D26" s="20"/>
+      <c r="E26" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="24" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="23" t="s">
+      <c r="B27" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="28" t="s">
+      <c r="D27" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="27" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="23" t="s">
+      <c r="B28" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H28" s="28" t="s">
+      <c r="D28" s="20"/>
+      <c r="E28" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="27" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="23" t="s">
+      <c r="B29" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="21"/>
-      <c r="H29" s="25" t="s">
+      <c r="D29" s="20"/>
+      <c r="E29" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="20"/>
+      <c r="H29" s="24" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="23" t="s">
+      <c r="B30" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" s="26" t="s">
+      <c r="D30" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="25" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="23" t="s">
+      <c r="B31" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="24" t="s">
+      <c r="D31" s="20"/>
+      <c r="E31" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="23" t="s">
+      <c r="B32" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="24" t="s">
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="23" t="s">
+      <c r="B33" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="26" t="s">
+      <c r="D33" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="25" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="23" t="s">
+      <c r="B34" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H34" s="26" t="s">
+      <c r="D34" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="25" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="23" t="s">
+      <c r="B35" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" s="26" t="s">
+      <c r="D35" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="25" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="23" t="s">
+      <c r="B36" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H36" s="26" t="s">
+      <c r="E36" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="20"/>
+      <c r="G36" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="25" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1890,622 +1890,622 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="39" t="s">
+      <c r="B3" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="40" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="39" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="39" t="s">
+      <c r="B4" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="41" t="s">
+      <c r="D4" s="36"/>
+      <c r="E4" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="39" t="s">
+      <c r="B5" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="42" t="s">
+      <c r="D5" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="36"/>
+      <c r="G5" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="41" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="39" t="s">
+      <c r="B6" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="40" t="s">
+      <c r="D6" s="36"/>
+      <c r="E6" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="39" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="39" t="s">
+      <c r="B7" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="44" t="s">
+      <c r="D7" s="36"/>
+      <c r="E7" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="39" t="s">
+      <c r="B8" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="44" t="s">
+      <c r="D8" s="36"/>
+      <c r="E8" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="39" t="s">
+      <c r="B9" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="41" t="s">
+      <c r="D9" s="36"/>
+      <c r="E9" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="39" t="s">
+      <c r="B10" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="44" t="s">
+      <c r="D10" s="36"/>
+      <c r="E10" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="39" t="s">
+      <c r="B11" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="44" t="s">
+      <c r="D11" s="36"/>
+      <c r="E11" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="39" t="s">
+      <c r="B12" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="40" t="s">
+      <c r="D12" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="39" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="39" t="s">
+      <c r="B13" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="44" t="s">
+      <c r="D13" s="36"/>
+      <c r="E13" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="39" t="s">
+      <c r="B14" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="37"/>
-      <c r="H14" s="41" t="s">
+      <c r="D14" s="36"/>
+      <c r="E14" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="36"/>
+      <c r="H14" s="40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="39" t="s">
+      <c r="B15" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="41" t="s">
+      <c r="D15" s="36"/>
+      <c r="E15" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="39" t="s">
+      <c r="B16" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="41" t="s">
+      <c r="D16" s="36"/>
+      <c r="E16" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="36"/>
+      <c r="H16" s="40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="39" t="s">
+      <c r="B17" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="42" t="s">
+      <c r="D17" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="41" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="39" t="s">
+      <c r="B18" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="41" t="s">
+      <c r="D18" s="36"/>
+      <c r="E18" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="36"/>
+      <c r="H18" s="40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="39" t="s">
+      <c r="B19" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="41" t="s">
+      <c r="D19" s="36"/>
+      <c r="E19" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="39" t="s">
+      <c r="B20" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="37"/>
-      <c r="H20" s="41" t="s">
+      <c r="D20" s="36"/>
+      <c r="E20" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="36"/>
+      <c r="H20" s="40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="39" t="s">
+      <c r="B21" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="37"/>
-      <c r="H21" s="41" t="s">
+      <c r="D21" s="36"/>
+      <c r="E21" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="36"/>
+      <c r="H21" s="40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="39" t="s">
+      <c r="B22" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="37"/>
-      <c r="H22" s="41" t="s">
+      <c r="D22" s="36"/>
+      <c r="E22" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="36"/>
+      <c r="H22" s="40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="39" t="s">
+      <c r="B23" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="42" t="s">
+      <c r="D23" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="41" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="39" t="s">
+      <c r="B24" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="37"/>
-      <c r="E24" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="41" t="s">
+      <c r="D24" s="36"/>
+      <c r="E24" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="36"/>
+      <c r="H24" s="40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="39" t="s">
+      <c r="B25" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="42" t="s">
+      <c r="D25" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="41" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="39" t="s">
+      <c r="B26" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="37"/>
-      <c r="H26" s="41" t="s">
+      <c r="D26" s="36"/>
+      <c r="E26" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="36"/>
+      <c r="H26" s="40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="39" t="s">
+      <c r="B27" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="42" t="s">
+      <c r="D27" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="41" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="39" t="s">
+      <c r="B28" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="37"/>
-      <c r="G28" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28" s="42" t="s">
+      <c r="E28" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="36"/>
+      <c r="G28" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="41" t="s">
         <v>8</v>
       </c>
     </row>
